--- a/src/cloud/tests/HCM/CoreHR_India/HireAnEmployeeITC_Test.xlsx
+++ b/src/cloud/tests/HCM/CoreHR_India/HireAnEmployeeITC_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13155" windowHeight="2520"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="13160" windowHeight="2520"/>
   </bookViews>
   <sheets>
     <sheet name="TS01" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Execute</t>
   </si>
@@ -140,6 +140,75 @@
   </si>
   <si>
     <t>{HCM_India_username}</t>
+  </si>
+  <si>
+    <t>HireDate</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>SubcontractorAgreement</t>
+  </si>
+  <si>
+    <t>TemporaryEmploymentAgreement</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>OriginalDateofHire</t>
+  </si>
+  <si>
+    <t>MiddleName1</t>
+  </si>
+  <si>
+    <t>MiddleName2</t>
+  </si>
+  <si>
+    <t>EmployeeLegalStatus</t>
+  </si>
+  <si>
+    <t>6/15/21</t>
+  </si>
+  <si>
+    <t>PreferredName1</t>
+  </si>
+  <si>
+    <t>PreferredName2</t>
+  </si>
+  <si>
+    <t>AssignmentNumber</t>
+  </si>
+  <si>
+    <t>SeniorityDate</t>
+  </si>
+  <si>
+    <t>ProjectedEndDate</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>ReportingEstablishment</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>WorkerCategory</t>
+  </si>
+  <si>
+    <t>WorkingHours</t>
   </si>
 </sst>
 </file>
@@ -223,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,6 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,55 +636,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="20.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
-    <col min="9" max="22" width="20.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="0.85546875" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="0.81640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="20.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="0.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="0.81640625" style="2" customWidth="1"/>
+    <col min="9" max="44" width="20.7265625" style="3" customWidth="1"/>
+    <col min="45" max="45" width="0.81640625" style="2" customWidth="1"/>
+    <col min="46" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -628,49 +720,115 @@
         <v>9</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -684,56 +842,80 @@
         <v>7</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="AO3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="AP3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="AR3" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:V1"/>
+    <mergeCell ref="I1:AR1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -746,7 +928,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
